--- a/example/datasets/transmetuesit_dataset.xlsx
+++ b/example/datasets/transmetuesit_dataset.xlsx
@@ -4938,7 +4938,10 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"محمد بن عبد الوهاب القناد")</f>
         <v>محمد بن عبد الوهاب القناد</v>
       </c>
-      <c r="C330" s="3"/>
+      <c r="C330" s="5" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"10")</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="5" t="str">
@@ -8386,8 +8389,8 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ibrahim_sulejman")</f>
-        <v>ibrahim_sulejman</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ibrahim_sulejman_muedib")</f>
+        <v>ibrahim_sulejman_muedib</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ahmed_ibrahim_halid")</f>
@@ -11916,8 +11919,8 @@
     </row>
     <row r="356">
       <c r="A356" s="9" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ibrahim_sulejman")</f>
-        <v>ibrahim_sulejman</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ibrahim_sulejman_hanefi")</f>
+        <v>ibrahim_sulejman_hanefi</v>
       </c>
       <c r="B356" s="3" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ahmed_xhevas")</f>
